--- a/Analisis gastos/prueba.xlsx
+++ b/Analisis gastos/prueba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ENERO 18" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="JULIO 18 " sheetId="7" r:id="rId7"/>
     <sheet name="AGOSTO 18 " sheetId="8" r:id="rId8"/>
     <sheet name="SEPTIEMBRE 18" sheetId="9" r:id="rId9"/>
+    <sheet name="OCTUBRE 18" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="1187">
   <si>
     <t>CEDIS</t>
   </si>
@@ -3262,6 +3263,327 @@
   </si>
   <si>
     <t>TELEFONOS SUC PALOMAR FACTURACION SEPTIEMBRE</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Nomina #43 Alfonso Aguilar Aguirre</t>
+  </si>
+  <si>
+    <t>MUSICA Y SONIDO FACT REP23498 MENSUALIDAD DE OCTUBRE 2018</t>
+  </si>
+  <si>
+    <t>31/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomina #43 Judith Behar Quiñones  </t>
+  </si>
+  <si>
+    <t>FUMIGACIONES FACT 1321 MENSUALIDAD OCTUBRE 2018</t>
+  </si>
+  <si>
+    <t>Nomina #43 CEDIS "Gabriel Ponce Perez" TRANSFERENCIA ref 2816601</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO EQ TRANSP GASOLINA TRO FACT AE11619</t>
+  </si>
+  <si>
+    <t>29/10/2018</t>
+  </si>
+  <si>
+    <t>Nomina #43 CEDIS</t>
+  </si>
+  <si>
+    <t>MANEJO DE REDES SOCIALES FACT A91 MENSUALIDAD DE OCTUBRE</t>
+  </si>
+  <si>
+    <t>Llanta carro CEDIS ATOS "Pedro Alejandro Gonzalez"" fact/3093</t>
+  </si>
+  <si>
+    <t>SISTEMA OSMOSIS INVERSA (AGUA) FACT 3262E MENSUALIDAD DE OCTUBRE 2018</t>
+  </si>
+  <si>
+    <t>Vale de caja Prestamo Julio Cesar  (23/10/2018)</t>
+  </si>
+  <si>
+    <t>SERVICIO DE REPARTO FACT 1418 (SEMANA DEL 5 AL 11 DE NOVIEMBRE 2018)</t>
+  </si>
+  <si>
+    <t>CAFE CONSUMOS TRO FACT A1024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complemento RO TdC Citi Premier </t>
+  </si>
+  <si>
+    <t>SERVICIO DE REPARTO FACT 1354 (SEMANA 29 DE OCTUBRE AL 4 DE NOVIEMBRE )</t>
+  </si>
+  <si>
+    <t>25/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAFE CONSUMOS TRO FACT A1029 </t>
+  </si>
+  <si>
+    <t>Nomina #42 Alfonso Aguilar Aguirre</t>
+  </si>
+  <si>
+    <t>SERVICIO DE REPARTO FACT 1320 (SEMANA 22 AL 28 DE OCTUBRE 2018)</t>
+  </si>
+  <si>
+    <t>17/10/2018</t>
+  </si>
+  <si>
+    <t>MEMBRESI ANUAL FACT FE232031 TORTAS RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMARA NACIONAL DE COMERCIO Y SERVICIOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomina #42 Judith Behar Quiñones  </t>
+  </si>
+  <si>
+    <t>TELEFONOS SUC INGLATERRA MES FACTURADO SEPTIEMBRE</t>
+  </si>
+  <si>
+    <t>10/10/2018</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO EQ TRANSP TRO REPARACION CARRO CEDIS FACT A987</t>
+  </si>
+  <si>
+    <t>Nomina #42 CEDIS "Gabriel Ponce Perez" TRANSFERENCIA ref 215756</t>
+  </si>
+  <si>
+    <t>SERVICIO DE REPARTO FACT 1279 SEMANA 15 AL 21 DE OCTUBRE 18</t>
+  </si>
+  <si>
+    <t>INVESTIGACION  DE MERCADOS FACT 1058</t>
+  </si>
+  <si>
+    <t>24/10/2018</t>
+  </si>
+  <si>
+    <t>Nomina #42 CEDIS</t>
+  </si>
+  <si>
+    <t>PAGO TARJETA JUDITH NOVENO PAGO TELEVISION INGLATERRA</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>IMPUESTOS FEDERALES PERIODO SEPTIEMBRE TRO</t>
+  </si>
+  <si>
+    <t>Pago de dominio Tarjeta Rodrigo Mestas (PESA UNIF IT J)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuenta que se mato por error en palomar </t>
+  </si>
+  <si>
+    <t>CUARTO PAGO PRESTAMO IGNACIO MESTAS</t>
+  </si>
+  <si>
+    <t>Nomina #41 Alfonso Aguilar Aguirre</t>
+  </si>
+  <si>
+    <t>Nomina Luz Maria Vale de caja</t>
+  </si>
+  <si>
+    <t>PUBLICIDAD COMPLEMENTO DE PAGO FACT FA75EA3 (PENDONES, LETREROS VALE FOLIADO)</t>
+  </si>
+  <si>
+    <t>TZIVIAH TATEI LARRONDO RAMOS</t>
+  </si>
+  <si>
+    <t>22/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomina #41 Judith Behar Quiñones  </t>
+  </si>
+  <si>
+    <t>Complemento de nomina #40 Luz Maria Vale de caja</t>
+  </si>
+  <si>
+    <t>PUBLICIDAD CARTELES DE PROHIBIDO PERROS, TARJETAS ETC.</t>
+  </si>
+  <si>
+    <t>18/10/2018</t>
+  </si>
+  <si>
+    <t>Nomina #41 CEDIS "Gabriel Ponce Perez" TRANSFERENCIA ref 247566</t>
+  </si>
+  <si>
+    <t>Nomina #43 Vacaciones Alan Reynoso Solis suc Inglaterra</t>
+  </si>
+  <si>
+    <t>Nomina #41 CEDIS</t>
+  </si>
+  <si>
+    <t>Nomina #43 INGLATERRA</t>
+  </si>
+  <si>
+    <t>IMPUESTOS SEGURO SOCIAL  PERIODO SEPTIEMBRE 2018 TRO</t>
+  </si>
+  <si>
+    <t>Platos y bandejas fact/K9783 "Cristaleria la unica SA de CV" (13/10/2018)</t>
+  </si>
+  <si>
+    <t>PAPELERIA  FACT CFDI748 IMPRESORA TERMICA</t>
+  </si>
+  <si>
+    <t>FINIQUITO Juan Ignacio Nuñez Ruiz-Velasco suc Inglaterra</t>
+  </si>
+  <si>
+    <t>PAPELERIA  FACT B13067 (ROLLOS  Y CINTAS DE IMPRESION SUCURSALES)</t>
+  </si>
+  <si>
+    <t>Pago Sindicato 12 Doce Diciembre anualidad 2018</t>
+  </si>
+  <si>
+    <t>REPARACION  FACT 67389C REPARACION TELEVISION TEPEYAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomina #42 Leticia Mancilla Arechiga </t>
+  </si>
+  <si>
+    <t>TERCER MENSUALIDAD PAGO PRESTAMO TORTAS RO</t>
+  </si>
+  <si>
+    <t>Nomina #40 Alfonso Aguilar Aguirre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASEO Y LIMPIEZA TRO FACT A549 SUC PALOMAR </t>
+  </si>
+  <si>
+    <t>LUZ TEPEYAC (31 JUL - 28 SEP 2018)</t>
+  </si>
+  <si>
+    <t>Nomina #42 Incapacidad Leticia Mancilla Arechiga (18 de Octubre al 14 e Noviembre)</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO EQ TRANSP GASOLINA TRO SEMANA 15 OCTUBRE 18</t>
+  </si>
+  <si>
+    <t>15/10/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomina #40 Judith Behar Quiñones  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROTULOS, VINILES Y MAS FACT CG18058 SUC PALOMAR </t>
+  </si>
+  <si>
+    <t>TELEFONO SUC TEPEYAC MES FACTURADO SEPTIEMBRE</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Nomina #42 INGLATERRA</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>Nomina #38 Judith Behar Quiñones  (recuperación por robo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENTA LOCAL TRO PALOMAR </t>
+  </si>
+  <si>
+    <t>REPARACION Y MANTENIMENTO EQS TRO REFRIGERADOR SUC TEPEYAC FACT 511</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>FINIQUITO Fidel Villalobos Jimenez suc Inglaterra</t>
+  </si>
+  <si>
+    <t>Nomina #40 CEDIS "Gabriel Ponce Perez" cheque 0845</t>
+  </si>
+  <si>
+    <t>IMPUESTOS 2% S/NOMINA MES SEPTIEMBRE TRO</t>
+  </si>
+  <si>
+    <t>REPARACION  REFRIGERADOR CHAPALITA FACT D71022 TRO</t>
+  </si>
+  <si>
+    <t>Nomina #41 INGLATERRA</t>
+  </si>
+  <si>
+    <t>DESARROLLO DE FRANQUICIAS MENSUALIDAD OCTUBRE 2018 FACT 1625</t>
+  </si>
+  <si>
+    <t>Nomina #40 CEDIS</t>
+  </si>
+  <si>
+    <t>LUZ PALOMAR (22 AGOSTO - 26 SEPTIEMBRE 2018)</t>
+  </si>
+  <si>
+    <t>Nomina #43 Vacaciones Paola Ramirez Eslava suc Tepeyac</t>
+  </si>
+  <si>
+    <t>Nomina #40 Fernando Michel Ramirez suc Inglaterra</t>
+  </si>
+  <si>
+    <t>MANEJO DE REDES SOCIALES FACT C817811 MENSUALIDAD SEPTIEMBRE</t>
+  </si>
+  <si>
+    <t>PRESTAMO Julio Cesar (CEDIS) Medicamento</t>
+  </si>
+  <si>
+    <t>Nomina #43 PALOMAR</t>
+  </si>
+  <si>
+    <t>Nomina #43 TEPEYAC</t>
+  </si>
+  <si>
+    <t>Nomina #40 INGLATERRA</t>
+  </si>
+  <si>
+    <t>CAFE CONSUMOS TRO FACT A1018</t>
+  </si>
+  <si>
+    <t>Renta Rodrigo Mestas Gallardo Octubre 2018</t>
+  </si>
+  <si>
+    <t>Nomina #42 PALOMAR</t>
+  </si>
+  <si>
+    <t>Nomina #42 TEPEYAC</t>
+  </si>
+  <si>
+    <t>SERVICIO DE REPARTO FACT 1233 SEMANA 8 AL 14 DE OCTUBRE 18</t>
+  </si>
+  <si>
+    <t>Nomina #41 PALOMAR</t>
+  </si>
+  <si>
+    <t>Nomina #41 TEPEYAC</t>
+  </si>
+  <si>
+    <t>MANTENIMIENTO EQ TRANSP GASOLINA TRO FACT AE11032</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Nomina #40 PALOMAR</t>
+  </si>
+  <si>
+    <t>Nomina #40 TEPEYAC</t>
+  </si>
+  <si>
+    <t>TRASPASO ENTRE CUENTAS A CUENTA DE AGUINALDOS 2018</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
 </sst>
 </file>
@@ -5247,6 +5569,1325 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2"/>
+    <col min="6" max="6" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
+        <v>43374</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="6">
+        <v>21595.618999999999</v>
+      </c>
+      <c r="D2" s="12">
+        <v>43374</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F2" s="6">
+        <v>10564.46</v>
+      </c>
+      <c r="G2" s="16">
+        <v>43374</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I2" s="6">
+        <v>11200.19</v>
+      </c>
+      <c r="J2" s="4">
+        <v>43374</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="L2" s="6">
+        <v>16016.17</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>1152</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="22">
+        <v>9900</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>43374</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="9">
+        <v>800</v>
+      </c>
+      <c r="D3" s="7">
+        <v>43378</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="9">
+        <v>573</v>
+      </c>
+      <c r="G3" s="7">
+        <v>43378</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="6">
+        <v>573</v>
+      </c>
+      <c r="J3" s="4">
+        <v>43374</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>998</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1382</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="22">
+        <v>11379.99</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>43378</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4746</v>
+      </c>
+      <c r="D4" s="7">
+        <v>43381</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F4" s="6">
+        <v>10853.785</v>
+      </c>
+      <c r="G4" s="37">
+        <v>43381</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I4" s="6">
+        <v>10814.48</v>
+      </c>
+      <c r="J4" s="4">
+        <v>43374</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>999</v>
+      </c>
+      <c r="L4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>1182</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="22">
+        <v>3500</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
+        <v>43378</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="9">
+        <v>523</v>
+      </c>
+      <c r="D5" s="7">
+        <v>43388</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F5" s="9">
+        <v>9384.89</v>
+      </c>
+      <c r="G5" s="37">
+        <v>43388</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I5" s="6">
+        <v>9814.4599999999991</v>
+      </c>
+      <c r="J5" s="7">
+        <v>43375</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>1116</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="O5" s="22">
+        <v>3700.4</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>43378</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C6" s="6">
+        <v>297</v>
+      </c>
+      <c r="D6" s="7">
+        <v>43395</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F6" s="9">
+        <v>10811.92</v>
+      </c>
+      <c r="G6" s="37">
+        <v>43395</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I6" s="6">
+        <v>10243.040000000001</v>
+      </c>
+      <c r="J6" s="7">
+        <v>43375</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>1175</v>
+      </c>
+      <c r="L6" s="9">
+        <v>4000</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>1116</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="22">
+        <v>510</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>43381</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C7" s="6">
+        <v>20629.900000000001</v>
+      </c>
+      <c r="D7" s="37">
+        <v>43402</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F7" s="6">
+        <v>11150.5</v>
+      </c>
+      <c r="G7" s="28">
+        <v>43402</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I7" s="6">
+        <v>11100.5</v>
+      </c>
+      <c r="J7" s="7">
+        <v>43378</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>1170</v>
+      </c>
+      <c r="L7" s="9">
+        <v>200</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>1116</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="22">
+        <v>2320</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>43385</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C8" s="9">
+        <v>343</v>
+      </c>
+      <c r="D8" s="37">
+        <v>43402</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2742.5</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I8" s="6">
+        <v>12485</v>
+      </c>
+      <c r="J8" s="7">
+        <v>43381</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="L8" s="9">
+        <v>8951.8850000000002</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>1152</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="22">
+        <v>23200</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>43388</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C9" s="6">
+        <v>24484.89</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1050</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1372</v>
+      </c>
+      <c r="J9" s="7">
+        <v>43381</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="L9" s="9">
+        <v>7000</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>1154</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="22">
+        <v>3500</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>43392</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2244.66</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1856</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I10" s="6">
+        <v>54973.67</v>
+      </c>
+      <c r="J10" s="7">
+        <v>43381</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L10" s="9">
+        <v>691</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>1154</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="O10" s="22">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>43395</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C11" s="6">
+        <v>21667.98</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F11" s="6">
+        <v>658</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3475.96</v>
+      </c>
+      <c r="J11" s="7">
+        <v>43381</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1382</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="22">
+        <v>3500</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>43395</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1368</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F12" s="6">
+        <v>113</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1508</v>
+      </c>
+      <c r="J12" s="7">
+        <v>43381</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L12" s="9">
+        <v>857</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>1103</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12" s="22">
+        <v>6666</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>43395</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C13" s="6">
+        <v>343</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2088</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="6">
+        <v>589</v>
+      </c>
+      <c r="J13" s="7">
+        <v>43385</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="L13" s="9">
+        <v>2000</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>1103</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>806</v>
+      </c>
+      <c r="O13" s="22">
+        <v>2256.1999999999998</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>43399</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C14" s="6">
+        <v>939</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2900</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I14" s="15">
+        <f>SUM(I2:I13)</f>
+        <v>128149.3</v>
+      </c>
+      <c r="J14" s="29">
+        <v>43385</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>1135</v>
+      </c>
+      <c r="L14" s="31">
+        <v>482.4</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>1103</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="22">
+        <v>11303.91</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>43402</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C15" s="6">
+        <v>21535.977000000003</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F15" s="6">
+        <v>113</v>
+      </c>
+      <c r="J15" s="7">
+        <v>43388</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="L15" s="9">
+        <v>9594.755000000001</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="O15" s="22">
+        <v>3500</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>43402</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1650</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F16" s="15">
+        <f>SUM(F2:F15)</f>
+        <v>64859.055</v>
+      </c>
+      <c r="J16" s="7">
+        <v>43388</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>1130</v>
+      </c>
+      <c r="L16" s="9">
+        <v>7000</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O16" s="22">
+        <v>3636.6</v>
+      </c>
+      <c r="P16" s="23" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>43381</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C17" s="46">
+        <v>143</v>
+      </c>
+      <c r="J17" s="7">
+        <v>43388</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1382</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O17" s="22">
+        <v>295.8</v>
+      </c>
+      <c r="P17" s="23" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
+        <v>43402</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C18" s="46">
+        <v>142</v>
+      </c>
+      <c r="J18" s="7">
+        <v>43388</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>1121</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1143</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>815</v>
+      </c>
+      <c r="O18" s="22">
+        <v>5600</v>
+      </c>
+      <c r="P18" s="23" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>43404</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C19" s="46">
+        <v>245</v>
+      </c>
+      <c r="J19" s="7">
+        <v>43388</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>1118</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1598</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>1113</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="22">
+        <v>39601</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C20" s="6">
+        <v>930</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="J20" s="7">
+        <v>43395</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>1114</v>
+      </c>
+      <c r="L20" s="9">
+        <v>8861.1650000000009</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>1113</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>1055</v>
+      </c>
+      <c r="O20" s="22">
+        <v>10440</v>
+      </c>
+      <c r="P20" s="23" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3700.4</v>
+      </c>
+      <c r="J21" s="7">
+        <v>43395</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="L21" s="9">
+        <v>7000</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="22">
+        <v>11484</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2215</v>
+      </c>
+      <c r="J22" s="7">
+        <v>43395</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>1106</v>
+      </c>
+      <c r="L22" s="9">
+        <v>1382</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>1105</v>
+      </c>
+      <c r="O22" s="22">
+        <v>3965</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3700.4</v>
+      </c>
+      <c r="J23" s="7">
+        <v>43395</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="L23" s="6">
+        <v>1000</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N23" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="22">
+        <v>510</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3700.4</v>
+      </c>
+      <c r="J24" s="7">
+        <v>43397</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="L24" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="22">
+        <v>510</v>
+      </c>
+      <c r="P24" s="23" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C25" s="6">
+        <v>3700.4</v>
+      </c>
+      <c r="J25" s="7">
+        <v>43399</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="L25" s="6">
+        <v>200</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N25" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="22">
+        <v>2204</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C26" s="15">
+        <f>SUM(C2:C25)</f>
+        <v>141644.62599999999</v>
+      </c>
+      <c r="J26" s="7">
+        <v>43399</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="L26" s="6">
+        <v>600</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="22">
+        <v>2320</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="36"/>
+      <c r="J27" s="7">
+        <v>43402</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>1090</v>
+      </c>
+      <c r="L27" s="6">
+        <v>8666.5300000000007</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="O27" s="22">
+        <v>3500</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="36"/>
+      <c r="J28" s="7">
+        <v>43402</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="L28" s="6">
+        <v>7000</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>1056</v>
+      </c>
+      <c r="O28" s="22">
+        <v>4408</v>
+      </c>
+      <c r="P28" s="23" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="36"/>
+      <c r="J29" s="7">
+        <v>43402</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L29" s="6">
+        <v>1382</v>
+      </c>
+      <c r="M29" s="20" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="O29" s="22">
+        <v>458.52</v>
+      </c>
+      <c r="P29" s="23" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="36"/>
+      <c r="J30" s="7">
+        <v>43402</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="L30" s="6">
+        <v>1000</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="25" t="s">
+        <v>1081</v>
+      </c>
+      <c r="O30" s="26">
+        <f>SUM(O2:O29)</f>
+        <v>174234.57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="36"/>
+      <c r="J31" s="7">
+        <v>43403</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>607</v>
+      </c>
+      <c r="L31" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J32" s="1"/>
+      <c r="K32" s="14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="L32" s="15">
+        <f>SUM(L2:L31)</f>
+        <v>103781.405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="32"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="32"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="32"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="17"/>
+      <c r="B74" s="1"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="17"/>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="17"/>
+      <c r="B76" s="1"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="18"/>
+      <c r="B81" s="1"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="1"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="1"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="1"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="17"/>
+      <c r="B88" s="33"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="1"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="1"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="1"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="1"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="1"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P98"/>
@@ -11737,7 +13378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -14510,7 +16151,7 @@
   <dimension ref="A1:P135"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
